--- a/medicine/Enfance/Misty_of_Chincoteague/Misty_of_Chincoteague.xlsx
+++ b/medicine/Enfance/Misty_of_Chincoteague/Misty_of_Chincoteague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Misty, le poney de l'île sauvage (Misty of Chincoteague) est un roman américain pour la jeunesse, écrit par Marguerite Henry en 1947. 
@@ -512,9 +524,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman est proposé en 1948 à la Médaille Newbery. Avec cinq autres romans, il ne décroche pas la récompense suprême mais remporte un prix d'honneur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman est proposé en 1948 à la Médaille Newbery. Avec cinq autres romans, il ne décroche pas la récompense suprême mais remporte un prix d'honneur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman s'inspire de l'histoire bien réelle d'une ponette de Chincoteague nommée Misty, née sur l'île d'Assateague[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman s'inspire de l'histoire bien réelle d'une ponette de Chincoteague nommée Misty, née sur l'île d'Assateague. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Adaptations et influence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un film sorti en 1961, Misty, reprend l'histoire de ce livre[3]. Ce classique de la littérature équestre enfantine est régulièrement exploité à l'école dans un but pédagogique[4]. Misty a inspiré un autre roman du même type, My Chincoteague Pony, paru en 2008[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un film sorti en 1961, Misty, reprend l'histoire de ce livre. Ce classique de la littérature équestre enfantine est régulièrement exploité à l'école dans un but pédagogique. Misty a inspiré un autre roman du même type, My Chincoteague Pony, paru en 2008
 </t>
         </is>
       </c>
